--- a/storage/app/xlsx/seed_cidades_ma.xlsx
+++ b/storage/app/xlsx/seed_cidades_ma.xlsx
@@ -23,7 +23,7 @@
     <t>AÇAILANDENSE</t>
   </si>
   <si>
-    <t>d7c24016-4ea9-44e1-b8b0-ab86f0cb3cf9</t>
+    <t>2cf09a32-ad9f-41a0-9df2-7b2c7cfe8369</t>
   </si>
   <si>
     <t>AFONSO CUNHA</t>

--- a/storage/app/xlsx/seed_cidades_ma.xlsx
+++ b/storage/app/xlsx/seed_cidades_ma.xlsx
@@ -23,7 +23,7 @@
     <t>AÇAILANDENSE</t>
   </si>
   <si>
-    <t>2cf09a32-ad9f-41a0-9df2-7b2c7cfe8369</t>
+    <t>dde3edf3-a95a-41bd-ba8d-b4bba73c7dff</t>
   </si>
   <si>
     <t>AFONSO CUNHA</t>

--- a/storage/app/xlsx/seed_cidades_ma.xlsx
+++ b/storage/app/xlsx/seed_cidades_ma.xlsx
@@ -23,7 +23,7 @@
     <t>AÇAILANDENSE</t>
   </si>
   <si>
-    <t>dde3edf3-a95a-41bd-ba8d-b4bba73c7dff</t>
+    <t>1479cb75-1ad7-48b4-9490-718645e46716</t>
   </si>
   <si>
     <t>AFONSO CUNHA</t>

--- a/storage/app/xlsx/seed_cidades_ma.xlsx
+++ b/storage/app/xlsx/seed_cidades_ma.xlsx
@@ -23,7 +23,7 @@
     <t>AÇAILANDENSE</t>
   </si>
   <si>
-    <t>1479cb75-1ad7-48b4-9490-718645e46716</t>
+    <t>010a3b57-6704-41a5-854b-6e02e1aff9b5</t>
   </si>
   <si>
     <t>AFONSO CUNHA</t>

--- a/storage/app/xlsx/seed_cidades_ma.xlsx
+++ b/storage/app/xlsx/seed_cidades_ma.xlsx
@@ -23,7 +23,7 @@
     <t>AÇAILANDENSE</t>
   </si>
   <si>
-    <t>010a3b57-6704-41a5-854b-6e02e1aff9b5</t>
+    <t>dc901320-7be3-444e-abba-8ab0a15a98c1</t>
   </si>
   <si>
     <t>AFONSO CUNHA</t>

--- a/storage/app/xlsx/seed_cidades_ma.xlsx
+++ b/storage/app/xlsx/seed_cidades_ma.xlsx
@@ -23,7 +23,7 @@
     <t>AÇAILANDENSE</t>
   </si>
   <si>
-    <t>dc901320-7be3-444e-abba-8ab0a15a98c1</t>
+    <t>e665f032-3aa8-4d93-82a7-3769597bb59c</t>
   </si>
   <si>
     <t>AFONSO CUNHA</t>
